--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -38,6 +38,52 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -53,13 +99,6 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
@@ -68,16 +107,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,37 +121,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -139,7 +139,14 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +154,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -161,19 +168,12 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -182,193 +182,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF47A1A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +390,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,27 +451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,16 +479,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -502,16 +508,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
@@ -520,127 +526,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1038,13 +1045,13 @@
     <col width="25.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>统一名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>别名</t>
         </is>
@@ -1303,7 +1310,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>平民</t>
         </is>
@@ -1315,7 +1322,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>仙游</t>
         </is>
@@ -1349,10 +1356,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1361,13 +1368,13 @@
     <col width="25.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>统一名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>别名</t>
         </is>
@@ -1376,290 +1383,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">莆田涵江医院  </t>
+          <t>复方太子参颗粒</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>莆田市涵江区医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>莆田阳光医院有限公司</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>莆田平民医院</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>福建省仙游县总医院</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>莆田福德医院</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>莆田协和医院有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>莆田市第一医院南日分院（秀屿区南日镇卫生院）</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>莆田滨海医院</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>中国人民解放军联勤保障部队第九00医院莆田医疗区</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>中国人民解放军第九五医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>莆田滨海医院</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>莆田市涵江区医院</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>莆田市涵江区医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>莆田协和医院有限公司</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>莆田协和医院有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>中国人民解放军第九五医院</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>中国人民解放军第九五医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>阳光</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>附属</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>莆田学院附属医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>市一</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>莆田市第一医院</t>
-        </is>
-      </c>
-    </row>
+          <t>复方太子参颗粒2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>平民</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
+      <c r="A23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>仙游</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区医院</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区医院分院</t>
-        </is>
-      </c>
+      <c r="A24" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1672,10 +1429,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1684,13 +1441,13 @@
     <col width="25.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>统一名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>别名</t>
         </is>
@@ -1699,290 +1456,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">莆田涵江医院  </t>
+          <t>5g*10袋</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>莆田市涵江区医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>莆田阳光医院有限公司</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>莆田平民医院</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>福建省仙游县总医院</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>莆田福德医院</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>莆田协和医院有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>莆田市第一医院南日分院（秀屿区南日镇卫生院）</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>莆田滨海医院</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>中国人民解放军联勤保障部队第九00医院莆田医疗区</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>中国人民解放军第九五医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>莆田滨海医院</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>莆田市涵江区医院</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>莆田市涵江区医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>莆田协和医院有限公司</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>莆田协和医院有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区南日镇卫生院</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>中国人民解放军第九五医院</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>中国人民解放军第九五医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>莆田人民医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>阳光</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>莆田阳光康复医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>附属</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>莆田学院附属医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>市一</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>莆田市第一医院</t>
-        </is>
-      </c>
-    </row>
+          <t>5g*10袋1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>平民</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>莆田市平民医院</t>
-        </is>
-      </c>
+      <c r="A23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>仙游</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>福建省仙游县医院</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区医院</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>莆田市秀屿区医院分院</t>
-        </is>
-      </c>
+      <c r="A24" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,12 +1511,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>要求名称</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>数据名称</t>
         </is>
@@ -2198,7 +1705,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>莆田市秀屿区平海镇卫生院</t>
+          <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2210,7 +1717,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>莆田市秀屿区东庄镇卫生院</t>
+          <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2251,12 +1758,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>要求厂家</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>数据厂家</t>
         </is>

--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9564" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="9564" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="厂家" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="名称" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="规格" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="相似名称" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="相似厂家" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="单位" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="厂家" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="名称" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="规格" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="相似名称" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="相似单位" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -31,7 +32,44 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -45,8 +83,9 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,7 +93,14 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,48 +121,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,22 +139,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -155,6 +148,14 @@
       <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -173,18 +174,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF47A1A1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -194,7 +189,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +225,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,13 +261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +279,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,73 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,37 +351,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,8 +391,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,16 +412,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -451,22 +446,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +454,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,10 +491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -508,146 +503,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,7 +1030,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1045,13 +1039,13 @@
     <col width="25.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>统一名称</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>别名</t>
         </is>
@@ -1310,7 +1304,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>平民</t>
         </is>
@@ -1322,7 +1316,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>仙游</t>
         </is>
@@ -1358,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1368,30 +1362,19 @@
     <col width="25.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>统一名称</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>别名</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>复方太子参颗粒</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>复方太子参颗粒2</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
@@ -1413,10 +1396,10 @@
     <row r="21"/>
     <row r="22"/>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
+      <c r="A23" s="2" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
+      <c r="A24" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1429,10 +1412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1441,13 +1424,13 @@
     <col width="25.5" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>统一名称</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>别名</t>
         </is>
@@ -1456,40 +1439,290 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5g*10袋</t>
+          <t xml:space="preserve">莆田涵江医院  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5g*10袋1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
+          <t>莆田市涵江区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>莆田阳光医院有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>莆田平民医院</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>福建省仙游县总医院</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>莆田福德医院</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>莆田协和医院有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>莆田市第一医院南日分院（秀屿区南日镇卫生院）</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>莆田滨海医院</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>中国人民解放军联勤保障部队第九00医院莆田医疗区</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>中国人民解放军第九五医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>莆田滨海医院</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>莆田市涵江区医院</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>莆田市涵江区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>莆田协和医院有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>莆田协和医院有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>中国人民解放军第九五医院</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>中国人民解放军第九五医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>阳光</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>附属</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>市一</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>平民</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>仙游</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院分院</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1502,7 +1735,330 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <cols>
+    <col width="48.5" customWidth="1" min="1" max="1"/>
+    <col width="25.5" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>统一名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>别名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">莆田涵江医院  </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>莆田市涵江区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>莆田阳光医院有限公司</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>莆田平民医院</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>福建省仙游县总医院</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>莆田福德医院</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>莆田协和医院有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>莆田市第一医院南日分院（秀屿区南日镇卫生院）</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>莆田滨海医院</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>中国人民解放军联勤保障部队第九00医院莆田医疗区</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>中国人民解放军第九五医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>莆田滨海医院</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>莆田市涵江区医院</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>莆田市涵江区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>莆田协和医院有限公司</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>莆田协和医院有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>中国人民解放军第九五医院</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>中国人民解放军第九五医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>莆田人民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>阳光</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>莆田阳光康复医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>附属</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>市一</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>莆田市第一医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>平民</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>莆田市平民医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>仙游</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>福建省仙游县医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院分院</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,12 +2067,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>要求名称</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>数据名称</t>
         </is>
@@ -1705,7 +2261,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>莆田市秀屿区东庄镇卫生院</t>
+          <t>莆田市秀屿区平海镇卫生院</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1717,7 +2273,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>莆田市秀屿区平海镇卫生院</t>
+          <t>莆田市秀屿区东庄镇卫生院</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1733,6 +2289,1302 @@
         </is>
       </c>
       <c r="B19" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区南日镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>仙游县郊尾镇卫生院</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>仙游县盖尾镇卫生院</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院湄洲岛分院</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>莆田学院附属医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区东庄镇卫生院</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区医院</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>莆田市秀屿区平海镇卫生院</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>莆田市秀屿区医院</t>
         </is>
@@ -1743,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1758,14 +3610,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>要求厂家</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>数据厂家</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>要求单位</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>数据单位</t>
         </is>
       </c>
     </row>
